--- a/upload_files/data_emgineer_jr__deeoreason_data_engineer_jr_jl.xlsx
+++ b/upload_files/data_emgineer_jr__deeoreason_data_engineer_jr_jl.xlsx
@@ -175,10 +175,10 @@
     <t>scikit-learn : 1</t>
   </si>
   <si>
+    <t>etl : 1</t>
+  </si>
+  <si>
     <t>english : 1</t>
-  </si>
-  <si>
-    <t>etl : 1</t>
   </si>
   <si>
     <t>14.28</t>

--- a/upload_files/data_emgineer_jr__deeoreason_data_engineer_jr_jl.xlsx
+++ b/upload_files/data_emgineer_jr__deeoreason_data_engineer_jr_jl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>CV ID</t>
   </si>
@@ -55,7 +55,7 @@
     <t>deeoreason_data_engineer_jr_jl.pdf</t>
   </si>
   <si>
-    <t>13.98</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>data engineer : 2</t>
@@ -173,18 +173,6 @@
   </si>
   <si>
     <t>scikit-learn : 1</t>
-  </si>
-  <si>
-    <t>etl : 1</t>
-  </si>
-  <si>
-    <t>english : 1</t>
-  </si>
-  <si>
-    <t>14.28</t>
-  </si>
-  <si>
-    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -592,25 +580,19 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11">
